--- a/doc/ue_cmd_nothreading.xlsx
+++ b/doc/ue_cmd_nothreading.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502358A-081E-4075-B7FF-2E835870B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ACDB06-C8CA-4265-B89D-AE801D87FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="GraphTask" sheetId="2" r:id="rId2"/>
     <sheet name="FTaskThreadAnyThread" sheetId="3" r:id="rId3"/>
     <sheet name="FThreadManager" sheetId="4" r:id="rId4"/>
+    <sheet name="关于ThreadId" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
   <si>
     <t>指令参数：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +511,136 @@
   </si>
   <si>
     <t>如果是nothreading，则named其他都没用，就只有gameThread，而Any也是通过主线程调用ThreadManager驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程执行原理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部插入到FTaskGraphInterface里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().QueueTask(this, ThreadToExecuteOn, CurrentThreadIfKnown);</t>
+  </si>
+  <si>
+    <t>如果是Any线程处理，插入到统一的优先级队列里面IncomingAnyThreadTasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后激活对应线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IndexToStart &gt;= 0)</t>
+  </si>
+  <si>
+    <t>StartTaskThread(Priority, IndexToStart);</t>
+  </si>
+  <si>
+    <t>int32 IndexToStart = IncomingAnyThreadTasks[Priority].Push(Task, PriIndex);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个线程都从里面取拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnyHiPriThreadNormalTask = AnyThread | HighThreadPriority | NormalTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyHiPriThreadHiPriTask = AnyThread | HighThreadPriority | HighTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyNormalThreadNormalTask = AnyThread | NormalThreadPriority | NormalTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyNormalThreadHiPriTask = AnyThread | NormalThreadPriority | HighTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyBackgroundThreadNormalTask = AnyThread | BackgroundThreadPriority | NormalTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyBackgroundHiPriTask = AnyThread | BackgroundThreadPriority | HighTaskPriority,</t>
+  </si>
+  <si>
+    <t>Any线程池的任务，分为高中低三个档次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalThreadPriority = 0x000,</t>
+  </si>
+  <si>
+    <t>HighThreadPriority = 0x400,</t>
+  </si>
+  <si>
+    <t>BackgroundThreadPriority = 0x800,</t>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的Task::GetDesiredThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define CREATE_HIPRI_TASK_THREADS (1)</t>
+  </si>
+  <si>
+    <t>#define CREATE_BACKGROUND_TASK_THREADS (1)</t>
+  </si>
+  <si>
+    <t>#define CREATE_HIPRI_TASK_THREADS (0)</t>
+  </si>
+  <si>
+    <t>#define CREATE_BACKGROUND_TASK_THREADS (0)</t>
+  </si>
+  <si>
+    <t>只有在以下几种情况才开启高优先级和低优先级的TASK线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if PLATFORM_USE_FULL_TASK_GRAPH &amp;&amp; !IS_PROGRAM &amp;&amp; WITH_ENGINE &amp;&amp; !UE_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS是不开启的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal void SetOverridesForTargetType()</t>
+  </si>
+  <si>
+    <t>if(Type == global::UnrealBuildTool.TargetType.Game)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_GAME=1");</t>
+  </si>
+  <si>
+    <t>else if(Type == global::UnrealBuildTool.TargetType.Client)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_CLIENT=1");</t>
+  </si>
+  <si>
+    <t>else if(Type == global::UnrealBuildTool.TargetType.Editor)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_EDITOR=1");</t>
+  </si>
+  <si>
+    <t>else if(Type == global::UnrealBuildTool.TargetType.Server)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_SERVER=1");</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("USE_NULL_RHI=1");</t>
+  </si>
+  <si>
+    <t>编译的时候开对应的开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q30"/>
+  <dimension ref="B3:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,6 +1183,84 @@
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1275,7 @@
   <dimension ref="B2:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1887,4 +2096,213 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA088047-7826-46E6-B8A9-EA3A0805FF19}">
+  <dimension ref="B3:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_cmd_nothreading.xlsx
+++ b/doc/ue_cmd_nothreading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ACDB06-C8CA-4265-B89D-AE801D87FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1028A52A-01DF-44AC-83BA-8EFD94AB7341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2103,7 +2103,7 @@
   <dimension ref="B3:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_cmd_nothreading.xlsx
+++ b/doc/ue_cmd_nothreading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1028A52A-01DF-44AC-83BA-8EFD94AB7341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -379,275 +378,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>！！！高配Linux一般就是4个，Windows一般按CPU算，会多一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().AttachToThread(ENamedThreads::AudioThread);</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().ProcessThreadUntilRequestReturn(ENamedThreads::AudioThread);</t>
+  </si>
+  <si>
+    <t>FRHIThread::Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().AttachToThread(ENamedThreads::RHIThread);</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().ProcessThreadUntilRequestReturn(ENamedThreads::RHIThread);</t>
+  </si>
+  <si>
+    <t>void FThreadManager::Tick()</t>
+  </si>
+  <si>
+    <t>const bool bIsSingleThreadEnvironment = FPlatformProcess::SupportsMultithreading() == false;</t>
+  </si>
+  <si>
+    <t>if (bIsSingleThreadEnvironment)</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_FSingleThreadManager_Tick);</t>
+  </si>
+  <si>
+    <t>FScopeLock ThreadsLock(&amp;ThreadsCritical);</t>
+  </si>
+  <si>
+    <t>// Tick all registered fake threads.</t>
+  </si>
+  <si>
+    <t>for (TPair&lt;uint32, FRunnableThread*&gt;&amp; ThreadPair : Threads)</t>
+  </si>
+  <si>
+    <t>// Only fake and forkable threads are ticked by the ThreadManager</t>
+  </si>
+  <si>
+    <t>if( ThreadPair.Value-&gt;GetThreadType() != FRunnableThread::ThreadType::Real )</t>
+  </si>
+  <si>
+    <t>ThreadPair.Value-&gt;Tick();</t>
+  </si>
+  <si>
+    <t>只有单线程默认，在会进行AnyThread的调度处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FTaskThreadBase : public FRunnable, FSingleThreadRunnable</t>
+  </si>
+  <si>
+    <t>virtual void Tick() override</t>
+  </si>
+  <si>
+    <t>ProcessTasksUntilIdle(0);</t>
+  </si>
+  <si>
+    <t>注意，这个TICK是UtilIdle，就是没有Task的就返回，而不是死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual uint64 ProcessTasksUntilIdle(int32 QueueIndex) override</t>
+  </si>
+  <si>
+    <t>if (FTaskGraphInterface::IsMultithread() == false)</t>
+  </si>
+  <si>
+    <t>return ProcessTasks();</t>
+  </si>
+  <si>
+    <t>check(0);</t>
+  </si>
+  <si>
+    <t>！！！里面没有数据就直接Break了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFakeThread : public FRunnableThread</t>
+  </si>
+  <si>
+    <t>FFakeThread()</t>
+  </si>
+  <si>
+    <t>: bIsSuspended(false)</t>
+  </si>
+  <si>
+    <t>, SingleThreadRunnable(nullptr)</t>
+  </si>
+  <si>
+    <t>ThreadID = ThreadIdCounter++;</t>
+  </si>
+  <si>
+    <t>ThreadID |= FakeIdReservedBit;</t>
+  </si>
+  <si>
+    <t>// Auto register with single thread manager.</t>
+  </si>
+  <si>
+    <t>FThreadManager::Get().AddThread(ThreadID, this);</t>
+  </si>
+  <si>
+    <t>构造函数就把自己加加进来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAudioThread::Run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS的话，也不会创建AudioThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程分为Named和Any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>named都有专门的线程驱动，Any是通过一系列额外线程驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是nothreading，则named其他都没用，就只有gameThread，而Any也是通过主线程调用ThreadManager驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程执行原理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部插入到FTaskGraphInterface里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().QueueTask(this, ThreadToExecuteOn, CurrentThreadIfKnown);</t>
+  </si>
+  <si>
+    <t>如果是Any线程处理，插入到统一的优先级队列里面IncomingAnyThreadTasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后激活对应线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IndexToStart &gt;= 0)</t>
+  </si>
+  <si>
+    <t>StartTaskThread(Priority, IndexToStart);</t>
+  </si>
+  <si>
+    <t>int32 IndexToStart = IncomingAnyThreadTasks[Priority].Push(Task, PriIndex);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个线程都从里面取拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnyHiPriThreadNormalTask = AnyThread | HighThreadPriority | NormalTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyHiPriThreadHiPriTask = AnyThread | HighThreadPriority | HighTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyNormalThreadNormalTask = AnyThread | NormalThreadPriority | NormalTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyNormalThreadHiPriTask = AnyThread | NormalThreadPriority | HighTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyBackgroundThreadNormalTask = AnyThread | BackgroundThreadPriority | NormalTaskPriority,</t>
+  </si>
+  <si>
+    <t>AnyBackgroundHiPriTask = AnyThread | BackgroundThreadPriority | HighTaskPriority,</t>
+  </si>
+  <si>
+    <t>Any线程池的任务，分为高中低三个档次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalThreadPriority = 0x000,</t>
+  </si>
+  <si>
+    <t>HighThreadPriority = 0x400,</t>
+  </si>
+  <si>
+    <t>BackgroundThreadPriority = 0x800,</t>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的Task::GetDesiredThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define CREATE_HIPRI_TASK_THREADS (1)</t>
+  </si>
+  <si>
+    <t>#define CREATE_BACKGROUND_TASK_THREADS (1)</t>
+  </si>
+  <si>
+    <t>#define CREATE_HIPRI_TASK_THREADS (0)</t>
+  </si>
+  <si>
+    <t>#define CREATE_BACKGROUND_TASK_THREADS (0)</t>
+  </si>
+  <si>
+    <t>只有在以下几种情况才开启高优先级和低优先级的TASK线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if PLATFORM_USE_FULL_TASK_GRAPH &amp;&amp; !IS_PROGRAM &amp;&amp; WITH_ENGINE &amp;&amp; !UE_SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS是不开启的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal void SetOverridesForTargetType()</t>
+  </si>
+  <si>
+    <t>if(Type == global::UnrealBuildTool.TargetType.Game)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_GAME=1");</t>
+  </si>
+  <si>
+    <t>else if(Type == global::UnrealBuildTool.TargetType.Client)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_CLIENT=1");</t>
+  </si>
+  <si>
+    <t>else if(Type == global::UnrealBuildTool.TargetType.Editor)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_EDITOR=1");</t>
+  </si>
+  <si>
+    <t>else if(Type == global::UnrealBuildTool.TargetType.Server)</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("UE_SERVER=1");</t>
+  </si>
+  <si>
+    <t>GlobalDefinitions.Add("USE_NULL_RHI=1");</t>
+  </si>
+  <si>
+    <t>编译的时候开对应的开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>！！！具体参照FGenericPlatformMisc::NumberOfWorkerThreadsToSpawn()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！高配Linux一般就是4个，Windows一般按CPU算，会多一些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().AttachToThread(ENamedThreads::AudioThread);</t>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().ProcessThreadUntilRequestReturn(ENamedThreads::AudioThread);</t>
-  </si>
-  <si>
-    <t>FRHIThread::Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().AttachToThread(ENamedThreads::RHIThread);</t>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().ProcessThreadUntilRequestReturn(ENamedThreads::RHIThread);</t>
-  </si>
-  <si>
-    <t>void FThreadManager::Tick()</t>
-  </si>
-  <si>
-    <t>const bool bIsSingleThreadEnvironment = FPlatformProcess::SupportsMultithreading() == false;</t>
-  </si>
-  <si>
-    <t>if (bIsSingleThreadEnvironment)</t>
-  </si>
-  <si>
-    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_FSingleThreadManager_Tick);</t>
-  </si>
-  <si>
-    <t>FScopeLock ThreadsLock(&amp;ThreadsCritical);</t>
-  </si>
-  <si>
-    <t>// Tick all registered fake threads.</t>
-  </si>
-  <si>
-    <t>for (TPair&lt;uint32, FRunnableThread*&gt;&amp; ThreadPair : Threads)</t>
-  </si>
-  <si>
-    <t>// Only fake and forkable threads are ticked by the ThreadManager</t>
-  </si>
-  <si>
-    <t>if( ThreadPair.Value-&gt;GetThreadType() != FRunnableThread::ThreadType::Real )</t>
-  </si>
-  <si>
-    <t>ThreadPair.Value-&gt;Tick();</t>
-  </si>
-  <si>
-    <t>只有单线程默认，在会进行AnyThread的调度处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FTaskThreadBase : public FRunnable, FSingleThreadRunnable</t>
-  </si>
-  <si>
-    <t>virtual void Tick() override</t>
-  </si>
-  <si>
-    <t>ProcessTasksUntilIdle(0);</t>
-  </si>
-  <si>
-    <t>注意，这个TICK是UtilIdle，就是没有Task的就返回，而不是死等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual uint64 ProcessTasksUntilIdle(int32 QueueIndex) override</t>
-  </si>
-  <si>
-    <t>if (FTaskGraphInterface::IsMultithread() == false)</t>
-  </si>
-  <si>
-    <t>return ProcessTasks();</t>
-  </si>
-  <si>
-    <t>check(0);</t>
-  </si>
-  <si>
-    <t>！！！里面没有数据就直接Break了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FFakeThread : public FRunnableThread</t>
-  </si>
-  <si>
-    <t>FFakeThread()</t>
-  </si>
-  <si>
-    <t>: bIsSuspended(false)</t>
-  </si>
-  <si>
-    <t>, SingleThreadRunnable(nullptr)</t>
-  </si>
-  <si>
-    <t>ThreadID = ThreadIdCounter++;</t>
-  </si>
-  <si>
-    <t>ThreadID |= FakeIdReservedBit;</t>
-  </si>
-  <si>
-    <t>// Auto register with single thread manager.</t>
-  </si>
-  <si>
-    <t>FThreadManager::Get().AddThread(ThreadID, this);</t>
-  </si>
-  <si>
-    <t>构造函数就把自己加加进来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAudioThread::Run()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS的话，也不会创建AudioThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程分为Named和Any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>named都有专门的线程驱动，Any是通过一系列额外线程驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是nothreading，则named其他都没用，就只有gameThread，而Any也是通过主线程调用ThreadManager驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程执行原理：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部插入到FTaskGraphInterface里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().QueueTask(this, ThreadToExecuteOn, CurrentThreadIfKnown);</t>
-  </si>
-  <si>
-    <t>如果是Any线程处理，插入到统一的优先级队列里面IncomingAnyThreadTasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后激活对应线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (IndexToStart &gt;= 0)</t>
-  </si>
-  <si>
-    <t>StartTaskThread(Priority, IndexToStart);</t>
-  </si>
-  <si>
-    <t>int32 IndexToStart = IncomingAnyThreadTasks[Priority].Push(Task, PriIndex);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个线程都从里面取拿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnyHiPriThreadNormalTask = AnyThread | HighThreadPriority | NormalTaskPriority,</t>
-  </si>
-  <si>
-    <t>AnyHiPriThreadHiPriTask = AnyThread | HighThreadPriority | HighTaskPriority,</t>
-  </si>
-  <si>
-    <t>AnyNormalThreadNormalTask = AnyThread | NormalThreadPriority | NormalTaskPriority,</t>
-  </si>
-  <si>
-    <t>AnyNormalThreadHiPriTask = AnyThread | NormalThreadPriority | HighTaskPriority,</t>
-  </si>
-  <si>
-    <t>AnyBackgroundThreadNormalTask = AnyThread | BackgroundThreadPriority | NormalTaskPriority,</t>
-  </si>
-  <si>
-    <t>AnyBackgroundHiPriTask = AnyThread | BackgroundThreadPriority | HighTaskPriority,</t>
-  </si>
-  <si>
-    <t>Any线程池的任务，分为高中低三个档次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalThreadPriority = 0x000,</t>
-  </si>
-  <si>
-    <t>HighThreadPriority = 0x400,</t>
-  </si>
-  <si>
-    <t>BackgroundThreadPriority = 0x800,</t>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的Task::GetDesiredThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#define CREATE_HIPRI_TASK_THREADS (1)</t>
-  </si>
-  <si>
-    <t>#define CREATE_BACKGROUND_TASK_THREADS (1)</t>
-  </si>
-  <si>
-    <t>#define CREATE_HIPRI_TASK_THREADS (0)</t>
-  </si>
-  <si>
-    <t>#define CREATE_BACKGROUND_TASK_THREADS (0)</t>
-  </si>
-  <si>
-    <t>只有在以下几种情况才开启高优先级和低优先级的TASK线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#if PLATFORM_USE_FULL_TASK_GRAPH &amp;&amp; !IS_PROGRAM &amp;&amp; WITH_ENGINE &amp;&amp; !UE_SERVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS是不开启的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>internal void SetOverridesForTargetType()</t>
-  </si>
-  <si>
-    <t>if(Type == global::UnrealBuildTool.TargetType.Game)</t>
-  </si>
-  <si>
-    <t>GlobalDefinitions.Add("UE_GAME=1");</t>
-  </si>
-  <si>
-    <t>else if(Type == global::UnrealBuildTool.TargetType.Client)</t>
-  </si>
-  <si>
-    <t>GlobalDefinitions.Add("UE_CLIENT=1");</t>
-  </si>
-  <si>
-    <t>else if(Type == global::UnrealBuildTool.TargetType.Editor)</t>
-  </si>
-  <si>
-    <t>GlobalDefinitions.Add("UE_EDITOR=1");</t>
-  </si>
-  <si>
-    <t>else if(Type == global::UnrealBuildTool.TargetType.Server)</t>
-  </si>
-  <si>
-    <t>GlobalDefinitions.Add("UE_SERVER=1");</t>
-  </si>
-  <si>
-    <t>GlobalDefinitions.Add("USE_NULL_RHI=1");</t>
-  </si>
-  <si>
-    <t>编译的时候开对应的开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1006,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1017,7 +1016,7 @@
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -1027,13 +1026,13 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
@@ -1104,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.2">
@@ -1112,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="Q18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.2">
@@ -1120,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="Q19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.2">
@@ -1136,12 +1135,12 @@
         <v>4</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="Q22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
@@ -1149,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="Q23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
@@ -1187,7 +1186,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -1209,12 +1208,12 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
@@ -1222,22 +1221,22 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -1247,7 +1246,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -1260,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1271,11 +1270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A26110C-F0F3-4E0C-ACD6-DE3156425254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1295,7 @@
         <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1314,7 +1313,7 @@
         <v>103</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1398,10 +1397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8759C8F5-F0E1-4A92-9712-462A1152C8B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1863,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4D6E8-62F0-4E4C-953B-7964EA8EC26C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1874,28 +1873,28 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
@@ -1903,25 +1902,25 @@
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s">
         <v>4</v>
@@ -1929,23 +1928,23 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
@@ -1953,12 +1952,12 @@
         <v>4</v>
       </c>
       <c r="Q14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s">
         <v>8</v>
@@ -1966,7 +1965,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1976,7 +1975,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1996,17 +1995,17 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -2016,7 +2015,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -2031,7 +2030,7 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
@@ -2041,7 +2040,7 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
@@ -2051,10 +2050,10 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
@@ -2074,7 +2073,7 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
@@ -2099,51 +2098,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA088047-7826-46E6-B8A9-EA3A0805FF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -2151,18 +2150,18 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -2172,12 +2171,12 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
@@ -2187,10 +2186,10 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
@@ -2200,15 +2199,15 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s">
         <v>8</v>
@@ -2216,12 +2215,12 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P22" t="s">
         <v>4</v>
@@ -2229,20 +2228,20 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P25" t="s">
         <v>8</v>
@@ -2250,10 +2249,10 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
@@ -2263,7 +2262,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
@@ -2273,7 +2272,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="P30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -2283,12 +2282,12 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="15:17" x14ac:dyDescent="0.2">
       <c r="Q33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="15:17" x14ac:dyDescent="0.2">
